--- a/biology/Zoologie/Ammodytes_hexapterus/Ammodytes_hexapterus.xlsx
+++ b/biology/Zoologie/Ammodytes_hexapterus/Ammodytes_hexapterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lançon gourdeau
-Ammodytes hexapterus, appelé Lançon gourdeau au Canada[1], est une espèce de poissons d'eau de mer ou saumâtre de la famille des Ammodytidae.
+Ammodytes hexapterus, appelé Lançon gourdeau au Canada, est une espèce de poissons d'eau de mer ou saumâtre de la famille des Ammodytidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ammodytes hexapterus se rencontre dans l'Atlantique nord-est, depuis la ville russe de Mourmansk jusqu'à l'Espagne et y compris l'Islande et la Baltique[2]. Les individus mentionnés en Méditerranée seraient en fait des erreurs d'identification[2].
-Cette espèce est présente entre 1 et 96 m de profondeur et notamment dans les eaux côtières, les baies et les plages sablonneuses, y compris la zone intertidale et les estuaires et rarement au large[2]. Ce poisson passe l'hiver enfoui dans le sable à des profondeurs comprises entre 20 et 50 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ammodytes hexapterus se rencontre dans l'Atlantique nord-est, depuis la ville russe de Mourmansk jusqu'à l'Espagne et y compris l'Islande et la Baltique. Les individus mentionnés en Méditerranée seraient en fait des erreurs d'identification.
+Cette espèce est présente entre 1 et 96 m de profondeur et notamment dans les eaux côtières, les baies et les plages sablonneuses, y compris la zone intertidale et les estuaires et rarement au large. Ce poisson passe l'hiver enfoui dans le sable à des profondeurs comprises entre 20 et 50 cm.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ammodytes hexapterus peut mesurer jusqu'à 20 cm, queue non comprise[2]. Il mesure cependant plus communément entre 11 et 15 cm[2].
-Ce poisson passe une partie de son temps enfoui dans le sable et une autre à nager en banc en pleine eau[2]. Il se nourrit de zooplancton et de diatomées de grande taille[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ammodytes hexapterus peut mesurer jusqu'à 20 cm, queue non comprise. Il mesure cependant plus communément entre 11 et 15 cm.
+Ce poisson passe une partie de son temps enfoui dans le sable et une autre à nager en banc en pleine eau. Il se nourrit de zooplancton et de diatomées de grande taille.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ammodytes hexapterus Pallas, 1814[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ammodytes hexapterus Pallas, 1814.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, hexapterus, dérivé du grec ancien ἕξ, héx, « six », et πτερόν, pterón, « nageoire », n'a pas d'étymologie avérée mais pourrait faire référence à l'absence de nageoires pelviennes ; cependant cela laisse à cette espèce de poissons cinq nageoires et non six[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, hexapterus, dérivé du grec ancien ἕξ, héx, « six », et πτερόν, pterón, « nageoire », n'a pas d'étymologie avérée mais pourrait faire référence à l'absence de nageoires pelviennes ; cependant cela laisse à cette espèce de poissons cinq nageoires et non six.
 </t>
         </is>
       </c>
